--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7b-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7b-Fzd8.xlsx
@@ -94,7 +94,7 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
         <v>0.063261</v>
       </c>
       <c r="I2">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J2">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N2">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q2">
-        <v>0.05095510477199999</v>
+        <v>0.04549532902199999</v>
       </c>
       <c r="R2">
-        <v>0.458595942948</v>
+        <v>0.4094579611979999</v>
       </c>
       <c r="S2">
-        <v>0.03243803178640709</v>
+        <v>0.008264030392256457</v>
       </c>
       <c r="T2">
-        <v>0.0324380317864071</v>
+        <v>0.008264030392256457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.063261</v>
       </c>
       <c r="I3">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J3">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>8.740964</v>
       </c>
       <c r="O3">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P3">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q3">
         <v>0.06144023595599999</v>
@@ -638,10 +638,10 @@
         <v>0.552962123604</v>
       </c>
       <c r="S3">
-        <v>0.03911286878562636</v>
+        <v>0.01116035400034725</v>
       </c>
       <c r="T3">
-        <v>0.03911286878562637</v>
+        <v>0.01116035400034725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.063261</v>
       </c>
       <c r="I4">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J4">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N4">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q4">
-        <v>0.000616105908</v>
+        <v>0.000400357782</v>
       </c>
       <c r="R4">
-        <v>0.005544953172</v>
+        <v>0.003603220038</v>
       </c>
       <c r="S4">
-        <v>0.0003922131671973162</v>
+        <v>7.272326520870908E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003922131671973163</v>
+        <v>7.272326520870907E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.063261</v>
       </c>
       <c r="I5">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J5">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N5">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O5">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P5">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q5">
-        <v>0.073096447743</v>
+        <v>0.02076851601</v>
       </c>
       <c r="R5">
-        <v>0.657868029687</v>
+        <v>0.18691664409</v>
       </c>
       <c r="S5">
-        <v>0.04653321597454175</v>
+        <v>0.003772511402779604</v>
       </c>
       <c r="T5">
-        <v>0.04653321597454176</v>
+        <v>0.003772511402779603</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.063261</v>
       </c>
       <c r="I6">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J6">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N6">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O6">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P6">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q6">
-        <v>0.0006013520369999999</v>
+        <v>6.4125567E-05</v>
       </c>
       <c r="R6">
-        <v>0.005412168333</v>
+        <v>0.0005771301029999999</v>
       </c>
       <c r="S6">
-        <v>0.0003828208494185187</v>
+        <v>1.16481328083685E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003828208494185187</v>
+        <v>1.16481328083685E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H7">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I7">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J7">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N7">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q7">
-        <v>0.3777464678924444</v>
+        <v>1.908665011309333</v>
       </c>
       <c r="R7">
-        <v>3.399718211032</v>
+        <v>17.177985101784</v>
       </c>
       <c r="S7">
-        <v>0.2404734910766267</v>
+        <v>0.3467007712916952</v>
       </c>
       <c r="T7">
-        <v>0.2404734910766267</v>
+        <v>0.3467007712916952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H8">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I8">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J8">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.740964</v>
       </c>
       <c r="O8">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P8">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q8">
-        <v>0.4554760945484444</v>
+        <v>2.577601507159111</v>
       </c>
       <c r="R8">
-        <v>4.099284850936</v>
+        <v>23.198413564432</v>
       </c>
       <c r="S8">
-        <v>0.2899561898463562</v>
+        <v>0.4682102020624649</v>
       </c>
       <c r="T8">
-        <v>0.2899561898463563</v>
+        <v>0.4682102020624649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H9">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I9">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J9">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N9">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O9">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P9">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q9">
-        <v>0.004567389894222222</v>
+        <v>0.01679620538933333</v>
       </c>
       <c r="R9">
-        <v>0.04110650904800001</v>
+        <v>0.151165848504</v>
       </c>
       <c r="S9">
-        <v>0.002907601490226114</v>
+        <v>0.003050958302662484</v>
       </c>
       <c r="T9">
-        <v>0.002907601490226115</v>
+        <v>0.003050958302662483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H10">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I10">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J10">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N10">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O10">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P10">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q10">
-        <v>0.5418873157842222</v>
+        <v>0.8713013115244446</v>
       </c>
       <c r="R10">
-        <v>4.876985842058</v>
+        <v>7.841711803720001</v>
       </c>
       <c r="S10">
-        <v>0.3449655937851875</v>
+        <v>0.1582681271690336</v>
       </c>
       <c r="T10">
-        <v>0.3449655937851875</v>
+        <v>0.1582681271690336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H11">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I11">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J11">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N11">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O11">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P11">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q11">
-        <v>0.004458014735777778</v>
+        <v>0.002690259169333333</v>
       </c>
       <c r="R11">
-        <v>0.040122132622</v>
+        <v>0.024212332524</v>
       </c>
       <c r="S11">
-        <v>0.002837973238412298</v>
+        <v>0.0004886739807435275</v>
       </c>
       <c r="T11">
-        <v>0.002837973238412298</v>
+        <v>0.0004886739807435275</v>
       </c>
     </row>
   </sheetData>
